--- a/gitlab_data3.xlsx
+++ b/gitlab_data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajili\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0332C757-F5DB-471C-B158-4BB143095B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C1651D-3207-4C5B-AF61-8718C8D5CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>number</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>manager / haproxy</t>
+  </si>
+  <si>
+    <t>ansible-roles/NULL-1</t>
+  </si>
+  <si>
+    <t>ansible-roles / NULL-1</t>
+  </si>
+  <si>
+    <t>ansible-roles / NULL-2</t>
+  </si>
+  <si>
+    <t>ansible-roles/NULL-2</t>
+  </si>
+  <si>
+    <t>ansible-roles / NULL-3</t>
   </si>
 </sst>
 </file>
@@ -479,7 +494,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +733,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,10 +766,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -768,10 +783,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -785,10 +800,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/gitlab_data3.xlsx
+++ b/gitlab_data3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajili\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C1651D-3207-4C5B-AF61-8718C8D5CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9775DC8-F308-4409-9302-59093D9590C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>number</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>ansible-roles / NULL-3</t>
+  </si>
+  <si>
+    <t>ansible-roles</t>
   </si>
 </sst>
 </file>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,6 +721,23 @@
       </c>
       <c r="E13" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1309</v>
+      </c>
+      <c r="B14">
+        <v>1309</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -732,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/gitlab_data3.xlsx
+++ b/gitlab_data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajili\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9775DC8-F308-4409-9302-59093D9590C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3368710D-4669-43F7-860C-BE9ECF69DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>number</t>
   </si>
@@ -69,15 +69,6 @@
   </si>
   <si>
     <t>haproxy</t>
-  </si>
-  <si>
-    <t>dat</t>
-  </si>
-  <si>
-    <t>dfyarchicloud / dat</t>
-  </si>
-  <si>
-    <t>dfyarchicloud/dat</t>
   </si>
   <si>
     <t>orange.apache22</t>
@@ -494,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,13 +671,13 @@
         <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -700,44 +691,27 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B13">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1309</v>
-      </c>
-      <c r="B14">
-        <v>1309</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +727,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -803,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -820,10 +794,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -834,13 +808,13 @@
         <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -851,13 +825,13 @@
         <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -868,13 +842,13 @@
         <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/gitlab_data3.xlsx
+++ b/gitlab_data3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajili\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3368710D-4669-43F7-860C-BE9ECF69DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ED88F7-0A3A-4BC1-A93F-6E3677C7D1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>number</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>ansible-roles</t>
+  </si>
+  <si>
+    <t>ansible-roles/NULL-3</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -726,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/gitlab_data3.xlsx
+++ b/gitlab_data3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajili\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ED88F7-0A3A-4BC1-A93F-6E3677C7D1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50FB3D-6718-4E12-AFC9-9F21F18D5212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="349">
   <si>
     <t>number</t>
   </si>
@@ -68,7 +68,940 @@
     <t>NULL-9</t>
   </si>
   <si>
-    <t>haproxy</t>
+    <t>NULL-10</t>
+  </si>
+  <si>
+    <t>NULL-11</t>
+  </si>
+  <si>
+    <t>NULL-12</t>
+  </si>
+  <si>
+    <t>NULL-13</t>
+  </si>
+  <si>
+    <t>NULL-14</t>
+  </si>
+  <si>
+    <t>NULL-15</t>
+  </si>
+  <si>
+    <t>NULL-16</t>
+  </si>
+  <si>
+    <t>NULL-17</t>
+  </si>
+  <si>
+    <t>NULL-18</t>
+  </si>
+  <si>
+    <t>NULL-19</t>
+  </si>
+  <si>
+    <t>NULL-20</t>
+  </si>
+  <si>
+    <t>NULL-21</t>
+  </si>
+  <si>
+    <t>phplib-dfy</t>
+  </si>
+  <si>
+    <t>NULL-23</t>
+  </si>
+  <si>
+    <t>NULL-24</t>
+  </si>
+  <si>
+    <t>NULL-25</t>
+  </si>
+  <si>
+    <t>NULL-26</t>
+  </si>
+  <si>
+    <t>NULL-27</t>
+  </si>
+  <si>
+    <t>NULL-28</t>
+  </si>
+  <si>
+    <t>NULL-29</t>
+  </si>
+  <si>
+    <t>picdfy</t>
+  </si>
+  <si>
+    <t>NULL-31</t>
+  </si>
+  <si>
+    <t>NULL-32</t>
+  </si>
+  <si>
+    <t>NULL-33</t>
+  </si>
+  <si>
+    <t>NULL-34</t>
+  </si>
+  <si>
+    <t>oca</t>
+  </si>
+  <si>
+    <t>NULL-36</t>
+  </si>
+  <si>
+    <t>NULL-37</t>
+  </si>
+  <si>
+    <t>NULL-38</t>
+  </si>
+  <si>
+    <t>NULL-39</t>
+  </si>
+  <si>
+    <t>NULL-40</t>
+  </si>
+  <si>
+    <t>NULL-41</t>
+  </si>
+  <si>
+    <t>NULL-42</t>
+  </si>
+  <si>
+    <t>oih</t>
+  </si>
+  <si>
+    <t>NULL-44</t>
+  </si>
+  <si>
+    <t>NULL-45</t>
+  </si>
+  <si>
+    <t>NULL-46</t>
+  </si>
+  <si>
+    <t>NULL-47</t>
+  </si>
+  <si>
+    <t>NULL-48</t>
+  </si>
+  <si>
+    <t>NULL-49</t>
+  </si>
+  <si>
+    <t>NULL-50</t>
+  </si>
+  <si>
+    <t>NULL-51</t>
+  </si>
+  <si>
+    <t>NULL-52</t>
+  </si>
+  <si>
+    <t>NULL-53</t>
+  </si>
+  <si>
+    <t>NULL-54</t>
+  </si>
+  <si>
+    <t>NULL-55</t>
+  </si>
+  <si>
+    <t>NULL-56</t>
+  </si>
+  <si>
+    <t>NULL-57</t>
+  </si>
+  <si>
+    <t>omais</t>
+  </si>
+  <si>
+    <t>NULL-59</t>
+  </si>
+  <si>
+    <t>NULL-60</t>
+  </si>
+  <si>
+    <t>NULL-61</t>
+  </si>
+  <si>
+    <t>NULL-62</t>
+  </si>
+  <si>
+    <t>NULL-63</t>
+  </si>
+  <si>
+    <t>webalbums</t>
+  </si>
+  <si>
+    <t>omaas</t>
+  </si>
+  <si>
+    <t>NULL-66</t>
+  </si>
+  <si>
+    <t>NULL-67</t>
+  </si>
+  <si>
+    <t>NULL-68</t>
+  </si>
+  <si>
+    <t>NULL-69</t>
+  </si>
+  <si>
+    <t>NULL-70</t>
+  </si>
+  <si>
+    <t>NULL-71</t>
+  </si>
+  <si>
+    <t>NULL-72</t>
+  </si>
+  <si>
+    <t>NULL-73</t>
+  </si>
+  <si>
+    <t>NULL-74</t>
+  </si>
+  <si>
+    <t>NULL-75</t>
+  </si>
+  <si>
+    <t>NULL-76</t>
+  </si>
+  <si>
+    <t>NULL-77</t>
+  </si>
+  <si>
+    <t>NULL-78</t>
+  </si>
+  <si>
+    <t>NULL-79</t>
+  </si>
+  <si>
+    <t>NULL-80</t>
+  </si>
+  <si>
+    <t>NULL-81</t>
+  </si>
+  <si>
+    <t>NULL-82</t>
+  </si>
+  <si>
+    <t>NULL-83</t>
+  </si>
+  <si>
+    <t>NULL-84</t>
+  </si>
+  <si>
+    <t>NULL-85</t>
+  </si>
+  <si>
+    <t>mdcs-expapp</t>
+  </si>
+  <si>
+    <t>NULL-87</t>
+  </si>
+  <si>
+    <t>NULL-88</t>
+  </si>
+  <si>
+    <t>NULL-89</t>
+  </si>
+  <si>
+    <t>NULL-90</t>
+  </si>
+  <si>
+    <t>NULL-91</t>
+  </si>
+  <si>
+    <t>NULL-92</t>
+  </si>
+  <si>
+    <t>NULL-93</t>
+  </si>
+  <si>
+    <t>NULL-94</t>
+  </si>
+  <si>
+    <t>NULL-95</t>
+  </si>
+  <si>
+    <t>NULL-96</t>
+  </si>
+  <si>
+    <t>NULL-97</t>
+  </si>
+  <si>
+    <t>sdc</t>
+  </si>
+  <si>
+    <t>NULL-99</t>
+  </si>
+  <si>
+    <t>NULL-100</t>
+  </si>
+  <si>
+    <t>NULL-101</t>
+  </si>
+  <si>
+    <t>NULL-102</t>
+  </si>
+  <si>
+    <t>NULL-103</t>
+  </si>
+  <si>
+    <t>NULL-104</t>
+  </si>
+  <si>
+    <t>NULL-105</t>
+  </si>
+  <si>
+    <t>NULL-106</t>
+  </si>
+  <si>
+    <t>gygraph</t>
+  </si>
+  <si>
+    <t>NULL-108</t>
+  </si>
+  <si>
+    <t>NULL-109</t>
+  </si>
+  <si>
+    <t>NULL-110</t>
+  </si>
+  <si>
+    <t>NULL-111</t>
+  </si>
+  <si>
+    <t>NULL-112</t>
+  </si>
+  <si>
+    <t>NULL-113</t>
+  </si>
+  <si>
+    <t>NULL-114</t>
+  </si>
+  <si>
+    <t>NULL-115</t>
+  </si>
+  <si>
+    <t>NULL-116</t>
+  </si>
+  <si>
+    <t>NULL-117</t>
+  </si>
+  <si>
+    <t>NULL-118</t>
+  </si>
+  <si>
+    <t>NULL-119</t>
+  </si>
+  <si>
+    <t>NULL-120</t>
+  </si>
+  <si>
+    <t>NULL-121</t>
+  </si>
+  <si>
+    <t>NULL-122</t>
+  </si>
+  <si>
+    <t>NULL-123</t>
+  </si>
+  <si>
+    <t>NULL-124</t>
+  </si>
+  <si>
+    <t>NULL-125</t>
+  </si>
+  <si>
+    <t>NULL-126</t>
+  </si>
+  <si>
+    <t>NULL-127</t>
+  </si>
+  <si>
+    <t>NULL-128</t>
+  </si>
+  <si>
+    <t>NULL-129</t>
+  </si>
+  <si>
+    <t>NULL-130</t>
+  </si>
+  <si>
+    <t>NULL-131</t>
+  </si>
+  <si>
+    <t>NULL-132</t>
+  </si>
+  <si>
+    <t>NULL-133</t>
+  </si>
+  <si>
+    <t>NULL-134</t>
+  </si>
+  <si>
+    <t>NULL-135</t>
+  </si>
+  <si>
+    <t>NULL-136</t>
+  </si>
+  <si>
+    <t>NULL-137</t>
+  </si>
+  <si>
+    <t>NULL-138</t>
+  </si>
+  <si>
+    <t>NULL-139</t>
+  </si>
+  <si>
+    <t>dfyarchicloud</t>
+  </si>
+  <si>
+    <t>NULL-141</t>
+  </si>
+  <si>
+    <t>NULL-142</t>
+  </si>
+  <si>
+    <t>NULL-143</t>
+  </si>
+  <si>
+    <t>NULL-144</t>
+  </si>
+  <si>
+    <t>NULL-145</t>
+  </si>
+  <si>
+    <t>NULL-146</t>
+  </si>
+  <si>
+    <t>NULL-147</t>
+  </si>
+  <si>
+    <t>NULL-148</t>
+  </si>
+  <si>
+    <t>NULL-149</t>
+  </si>
+  <si>
+    <t>NULL-150</t>
+  </si>
+  <si>
+    <t>refonte-ec</t>
+  </si>
+  <si>
+    <t>NULL-152</t>
+  </si>
+  <si>
+    <t>NULL-153</t>
+  </si>
+  <si>
+    <t>NULL-154</t>
+  </si>
+  <si>
+    <t>NULL-155</t>
+  </si>
+  <si>
+    <t>NULL-156</t>
+  </si>
+  <si>
+    <t>NULL-157</t>
+  </si>
+  <si>
+    <t>NULL-158</t>
+  </si>
+  <si>
+    <t>NULL-159</t>
+  </si>
+  <si>
+    <t>NULL-160</t>
+  </si>
+  <si>
+    <t>NULL-161</t>
+  </si>
+  <si>
+    <t>NULL-162</t>
+  </si>
+  <si>
+    <t>NULL-163</t>
+  </si>
+  <si>
+    <t>NULL-164</t>
+  </si>
+  <si>
+    <t>NULL-165</t>
+  </si>
+  <si>
+    <t>ansible-roles</t>
+  </si>
+  <si>
+    <t>NULL-167</t>
+  </si>
+  <si>
+    <t>NULL-168</t>
+  </si>
+  <si>
+    <t>NULL-169</t>
+  </si>
+  <si>
+    <t>NULL-170</t>
+  </si>
+  <si>
+    <t>NULL-171</t>
+  </si>
+  <si>
+    <t>NULL-172</t>
+  </si>
+  <si>
+    <t>NULL-173</t>
+  </si>
+  <si>
+    <t>NULL-174</t>
+  </si>
+  <si>
+    <t>NULL-175</t>
+  </si>
+  <si>
+    <t>mdcs-pagesperso</t>
+  </si>
+  <si>
+    <t>NULL-177</t>
+  </si>
+  <si>
+    <t>NULL-178</t>
+  </si>
+  <si>
+    <t>NULL-179</t>
+  </si>
+  <si>
+    <t>NULL-180</t>
+  </si>
+  <si>
+    <t>NULL-181</t>
+  </si>
+  <si>
+    <t>NULL-182</t>
+  </si>
+  <si>
+    <t>NULL-186</t>
+  </si>
+  <si>
+    <t>NULL-187</t>
+  </si>
+  <si>
+    <t>NULL-188</t>
+  </si>
+  <si>
+    <t>NULL-190</t>
+  </si>
+  <si>
+    <t>NULL-191</t>
+  </si>
+  <si>
+    <t>NULL-192</t>
+  </si>
+  <si>
+    <t>NULL-193</t>
+  </si>
+  <si>
+    <t>NULL-194</t>
+  </si>
+  <si>
+    <t>NULL-195</t>
+  </si>
+  <si>
+    <t>pushanoo</t>
+  </si>
+  <si>
+    <t>NULL-197</t>
+  </si>
+  <si>
+    <t>NULL-198</t>
+  </si>
+  <si>
+    <t>NULL-199</t>
+  </si>
+  <si>
+    <t>NULL-200</t>
+  </si>
+  <si>
+    <t>NULL-201</t>
+  </si>
+  <si>
+    <t>NULL-202</t>
+  </si>
+  <si>
+    <t>NULL-203</t>
+  </si>
+  <si>
+    <t>NULL-204</t>
+  </si>
+  <si>
+    <t>NULL-205</t>
+  </si>
+  <si>
+    <t>NULL-206</t>
+  </si>
+  <si>
+    <t>NULL-207</t>
+  </si>
+  <si>
+    <t>NULL-208</t>
+  </si>
+  <si>
+    <t>NULL-209</t>
+  </si>
+  <si>
+    <t>NULL-210</t>
+  </si>
+  <si>
+    <t>app-hebex_python</t>
+  </si>
+  <si>
+    <t>NULL-212</t>
+  </si>
+  <si>
+    <t>Outils Communs</t>
+  </si>
+  <si>
+    <t>mdcs-outils-communs</t>
+  </si>
+  <si>
+    <t>pfs-install-os</t>
+  </si>
+  <si>
+    <t>NULL-215</t>
+  </si>
+  <si>
+    <t>NULL-216</t>
+  </si>
+  <si>
+    <t>NULL-217</t>
+  </si>
+  <si>
+    <t>NULL-218</t>
+  </si>
+  <si>
+    <t>NULL-219</t>
+  </si>
+  <si>
+    <t>NULL-220</t>
+  </si>
+  <si>
+    <t>NULL-221</t>
+  </si>
+  <si>
+    <t>NULL-222</t>
+  </si>
+  <si>
+    <t>NULL-223</t>
+  </si>
+  <si>
+    <t>NULL-224</t>
+  </si>
+  <si>
+    <t>NULL-225</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>NULL-227</t>
+  </si>
+  <si>
+    <t>NULL-228</t>
+  </si>
+  <si>
+    <t>NULL-229</t>
+  </si>
+  <si>
+    <t>NULL-230</t>
+  </si>
+  <si>
+    <t>NULL-231</t>
+  </si>
+  <si>
+    <t>NULL-232</t>
+  </si>
+  <si>
+    <t>NULL-233</t>
+  </si>
+  <si>
+    <t>NULL-234</t>
+  </si>
+  <si>
+    <t>NULL-235</t>
+  </si>
+  <si>
+    <t>NULL-236</t>
+  </si>
+  <si>
+    <t>NULL-237</t>
+  </si>
+  <si>
+    <t>NULL-238</t>
+  </si>
+  <si>
+    <t>pfs-oio</t>
+  </si>
+  <si>
+    <t>NULL-240</t>
+  </si>
+  <si>
+    <t>NULL-241</t>
+  </si>
+  <si>
+    <t>NULL-242</t>
+  </si>
+  <si>
+    <t>NULL-243</t>
+  </si>
+  <si>
+    <t>NULL-244</t>
+  </si>
+  <si>
+    <t>NULL-245</t>
+  </si>
+  <si>
+    <t>NULL-246</t>
+  </si>
+  <si>
+    <t>NULL-247</t>
+  </si>
+  <si>
+    <t>NULL-248</t>
+  </si>
+  <si>
+    <t>hebex</t>
+  </si>
+  <si>
+    <t>NULL-250</t>
+  </si>
+  <si>
+    <t>NULL-251</t>
+  </si>
+  <si>
+    <t>NULL-252</t>
+  </si>
+  <si>
+    <t>NULL-253</t>
+  </si>
+  <si>
+    <t>NULL-254</t>
+  </si>
+  <si>
+    <t>NULL-255</t>
+  </si>
+  <si>
+    <t>NULL-256</t>
+  </si>
+  <si>
+    <t>NULL-257</t>
+  </si>
+  <si>
+    <t>NULL-258</t>
+  </si>
+  <si>
+    <t>NULL-259</t>
+  </si>
+  <si>
+    <t>NULL-260</t>
+  </si>
+  <si>
+    <t>NULL-261</t>
+  </si>
+  <si>
+    <t>NULL-262</t>
+  </si>
+  <si>
+    <t>NULL-263</t>
+  </si>
+  <si>
+    <t>NULL-264</t>
+  </si>
+  <si>
+    <t>NULL-265</t>
+  </si>
+  <si>
+    <t>NULL-266</t>
+  </si>
+  <si>
+    <t>NULL-267</t>
+  </si>
+  <si>
+    <t>NULL-268</t>
+  </si>
+  <si>
+    <t>NULL-269</t>
+  </si>
+  <si>
+    <t>NULL-270</t>
+  </si>
+  <si>
+    <t>NULL-271</t>
+  </si>
+  <si>
+    <t>NULL-272</t>
+  </si>
+  <si>
+    <t>NULL-273</t>
+  </si>
+  <si>
+    <t>NULL-274</t>
+  </si>
+  <si>
+    <t>NULL-275</t>
+  </si>
+  <si>
+    <t>NULL-276</t>
+  </si>
+  <si>
+    <t>NULL-277</t>
+  </si>
+  <si>
+    <t>NULL-278</t>
+  </si>
+  <si>
+    <t>NULL-279</t>
+  </si>
+  <si>
+    <t>NULL-280</t>
+  </si>
+  <si>
+    <t>NULL-281</t>
+  </si>
+  <si>
+    <t>NULL-282</t>
+  </si>
+  <si>
+    <t>NULL-283</t>
+  </si>
+  <si>
+    <t>NULL-284</t>
+  </si>
+  <si>
+    <t>NULL-285</t>
+  </si>
+  <si>
+    <t>NULL-286</t>
+  </si>
+  <si>
+    <t>NULL-287</t>
+  </si>
+  <si>
+    <t>NULL-288</t>
+  </si>
+  <si>
+    <t>NULL-289</t>
+  </si>
+  <si>
+    <t>NULL-290</t>
+  </si>
+  <si>
+    <t>NULL-291</t>
+  </si>
+  <si>
+    <t>pfs-oih</t>
+  </si>
+  <si>
+    <t>NULL-293</t>
+  </si>
+  <si>
+    <t>NULL-294</t>
+  </si>
+  <si>
+    <t>NULL-295</t>
+  </si>
+  <si>
+    <t>NULL-296</t>
+  </si>
+  <si>
+    <t>NULL-297</t>
+  </si>
+  <si>
+    <t>pfs-install-os_centos</t>
+  </si>
+  <si>
+    <t>pfs-install-os_ubuntu</t>
+  </si>
+  <si>
+    <t>NULL-300</t>
+  </si>
+  <si>
+    <t>NULL-301</t>
+  </si>
+  <si>
+    <t>ansible-templates</t>
+  </si>
+  <si>
+    <t>NULL-303</t>
+  </si>
+  <si>
+    <t>NULL-304</t>
+  </si>
+  <si>
+    <t>NULL-305</t>
+  </si>
+  <si>
+    <t>NULL-306</t>
+  </si>
+  <si>
+    <t>NULL-307</t>
+  </si>
+  <si>
+    <t>NULL-308</t>
+  </si>
+  <si>
+    <t>NULL-309</t>
+  </si>
+  <si>
+    <t>NULL-4</t>
+  </si>
+  <si>
+    <t>NULL-22</t>
+  </si>
+  <si>
+    <t>NULL-30</t>
+  </si>
+  <si>
+    <t>NULL-35</t>
+  </si>
+  <si>
+    <t>NULL-43</t>
+  </si>
+  <si>
+    <t>NULL-58</t>
+  </si>
+  <si>
+    <t>NULL-64</t>
+  </si>
+  <si>
+    <t>NULL-65</t>
+  </si>
+  <si>
+    <t>NULL-86</t>
+  </si>
+  <si>
+    <t>NULL-98</t>
+  </si>
+  <si>
+    <t>NULL-107</t>
+  </si>
+  <si>
+    <t>NULL-140</t>
+  </si>
+  <si>
+    <t>NULL-151</t>
+  </si>
+  <si>
+    <t>NULL-166</t>
+  </si>
+  <si>
+    <t>NULL-176</t>
   </si>
   <si>
     <t>orange.apache22</t>
@@ -98,34 +1031,43 @@
     <t>ansible-roles/orange.fhs</t>
   </si>
   <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>manager/haproxy</t>
-  </si>
-  <si>
-    <t>manager / haproxy</t>
-  </si>
-  <si>
-    <t>ansible-roles/NULL-1</t>
-  </si>
-  <si>
-    <t>ansible-roles / NULL-1</t>
-  </si>
-  <si>
-    <t>ansible-roles / NULL-2</t>
-  </si>
-  <si>
-    <t>ansible-roles/NULL-2</t>
-  </si>
-  <si>
-    <t>ansible-roles / NULL-3</t>
-  </si>
-  <si>
-    <t>ansible-roles</t>
-  </si>
-  <si>
-    <t>ansible-roles/NULL-3</t>
+    <t>ansible-manager</t>
+  </si>
+  <si>
+    <t>ansible / ansible-manager</t>
+  </si>
+  <si>
+    <t>ansible/ansible-manager</t>
+  </si>
+  <si>
+    <t>NULL-196</t>
+  </si>
+  <si>
+    <t>orange.git_client</t>
+  </si>
+  <si>
+    <t>ansible-roles / orange.git_client</t>
+  </si>
+  <si>
+    <t>ansible-roles/orange.git_client</t>
+  </si>
+  <si>
+    <t>orange.apache24</t>
+  </si>
+  <si>
+    <t>ansible-roles / orange.apache24</t>
+  </si>
+  <si>
+    <t>ansible-roles/orange.apache24</t>
+  </si>
+  <si>
+    <t>orange.apache24_keepalived</t>
+  </si>
+  <si>
+    <t>ansible-roles / orange.apache24_keepalived</t>
+  </si>
+  <si>
+    <t>ansible-roles/orange.apache24_keepalived</t>
   </si>
 </sst>
 </file>
@@ -488,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236:A31196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,53 +1610,3827 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1134</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1134</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1309</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1309</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D29" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E29" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>140</v>
+      </c>
+      <c r="B109">
+        <v>140</v>
+      </c>
+      <c r="C109" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>151</v>
+      </c>
+      <c r="B110">
+        <v>151</v>
+      </c>
+      <c r="C110" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110" t="s">
+        <v>156</v>
+      </c>
+      <c r="E110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>166</v>
+      </c>
+      <c r="B111">
+        <v>166</v>
+      </c>
+      <c r="C111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D111" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>167</v>
+      </c>
+      <c r="B112">
+        <v>167</v>
+      </c>
+      <c r="C112" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112" t="s">
+        <v>172</v>
+      </c>
+      <c r="E112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>168</v>
+      </c>
+      <c r="B113">
+        <v>168</v>
+      </c>
+      <c r="C113" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>169</v>
+      </c>
+      <c r="B114">
+        <v>169</v>
+      </c>
+      <c r="C114" t="s">
+        <v>174</v>
+      </c>
+      <c r="D114" t="s">
+        <v>174</v>
+      </c>
+      <c r="E114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>170</v>
+      </c>
+      <c r="B115">
+        <v>170</v>
+      </c>
+      <c r="C115" t="s">
+        <v>175</v>
+      </c>
+      <c r="D115" t="s">
+        <v>175</v>
+      </c>
+      <c r="E115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>171</v>
+      </c>
+      <c r="B116">
+        <v>171</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" t="s">
+        <v>176</v>
+      </c>
+      <c r="E116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>172</v>
+      </c>
+      <c r="B117">
+        <v>172</v>
+      </c>
+      <c r="C117" t="s">
+        <v>177</v>
+      </c>
+      <c r="D117" t="s">
+        <v>177</v>
+      </c>
+      <c r="E117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>173</v>
+      </c>
+      <c r="B118">
+        <v>173</v>
+      </c>
+      <c r="C118" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>174</v>
+      </c>
+      <c r="B119">
+        <v>174</v>
+      </c>
+      <c r="C119" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" t="s">
+        <v>179</v>
+      </c>
+      <c r="E119" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>175</v>
+      </c>
+      <c r="B120">
+        <v>175</v>
+      </c>
+      <c r="C120" t="s">
+        <v>180</v>
+      </c>
+      <c r="D120" t="s">
+        <v>180</v>
+      </c>
+      <c r="E120" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>176</v>
+      </c>
+      <c r="B121">
+        <v>176</v>
+      </c>
+      <c r="C121" t="s">
+        <v>181</v>
+      </c>
+      <c r="D121" t="s">
+        <v>181</v>
+      </c>
+      <c r="E121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>196</v>
+      </c>
+      <c r="B122">
+        <v>196</v>
+      </c>
+      <c r="C122" t="s">
+        <v>197</v>
+      </c>
+      <c r="D122" t="s">
+        <v>197</v>
+      </c>
+      <c r="E122" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>197</v>
+      </c>
+      <c r="B123">
+        <v>197</v>
+      </c>
+      <c r="C123" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" t="s">
+        <v>198</v>
+      </c>
+      <c r="E123" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>198</v>
+      </c>
+      <c r="B124">
+        <v>198</v>
+      </c>
+      <c r="C124" t="s">
+        <v>199</v>
+      </c>
+      <c r="D124" t="s">
+        <v>199</v>
+      </c>
+      <c r="E124" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>199</v>
+      </c>
+      <c r="B125">
+        <v>199</v>
+      </c>
+      <c r="C125" t="s">
+        <v>200</v>
+      </c>
+      <c r="D125" t="s">
+        <v>200</v>
+      </c>
+      <c r="E125" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>200</v>
+      </c>
+      <c r="B126">
+        <v>200</v>
+      </c>
+      <c r="C126" t="s">
+        <v>201</v>
+      </c>
+      <c r="D126" t="s">
+        <v>201</v>
+      </c>
+      <c r="E126" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>201</v>
+      </c>
+      <c r="B127">
+        <v>201</v>
+      </c>
+      <c r="C127" t="s">
+        <v>202</v>
+      </c>
+      <c r="D127" t="s">
+        <v>202</v>
+      </c>
+      <c r="E127" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>202</v>
+      </c>
+      <c r="B128">
+        <v>202</v>
+      </c>
+      <c r="C128" t="s">
+        <v>203</v>
+      </c>
+      <c r="D128" t="s">
+        <v>203</v>
+      </c>
+      <c r="E128" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>203</v>
+      </c>
+      <c r="B129">
+        <v>203</v>
+      </c>
+      <c r="C129" t="s">
+        <v>204</v>
+      </c>
+      <c r="D129" t="s">
+        <v>204</v>
+      </c>
+      <c r="E129" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>204</v>
+      </c>
+      <c r="B130">
+        <v>204</v>
+      </c>
+      <c r="C130" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" t="s">
+        <v>205</v>
+      </c>
+      <c r="E130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>205</v>
+      </c>
+      <c r="B131">
+        <v>205</v>
+      </c>
+      <c r="C131" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" t="s">
+        <v>206</v>
+      </c>
+      <c r="E131" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>206</v>
+      </c>
+      <c r="B132">
+        <v>206</v>
+      </c>
+      <c r="C132" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" t="s">
+        <v>207</v>
+      </c>
+      <c r="E132" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>207</v>
+      </c>
+      <c r="B133">
+        <v>207</v>
+      </c>
+      <c r="C133" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" t="s">
+        <v>208</v>
+      </c>
+      <c r="E133" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>208</v>
+      </c>
+      <c r="B134">
+        <v>208</v>
+      </c>
+      <c r="C134" t="s">
+        <v>209</v>
+      </c>
+      <c r="D134" t="s">
+        <v>209</v>
+      </c>
+      <c r="E134" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>209</v>
+      </c>
+      <c r="B135">
+        <v>209</v>
+      </c>
+      <c r="C135" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" t="s">
+        <v>210</v>
+      </c>
+      <c r="E135" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>210</v>
+      </c>
+      <c r="B136">
+        <v>210</v>
+      </c>
+      <c r="C136" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" t="s">
+        <v>211</v>
+      </c>
+      <c r="E136" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>211</v>
+      </c>
+      <c r="B137">
+        <v>211</v>
+      </c>
+      <c r="C137" t="s">
+        <v>212</v>
+      </c>
+      <c r="D137" t="s">
+        <v>212</v>
+      </c>
+      <c r="E137" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>212</v>
+      </c>
+      <c r="B138">
+        <v>212</v>
+      </c>
+      <c r="C138" t="s">
+        <v>213</v>
+      </c>
+      <c r="D138" t="s">
+        <v>213</v>
+      </c>
+      <c r="E138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>213</v>
+      </c>
+      <c r="B139">
+        <v>213</v>
+      </c>
+      <c r="C139" t="s">
+        <v>214</v>
+      </c>
+      <c r="D139" t="s">
+        <v>214</v>
+      </c>
+      <c r="E139" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>214</v>
+      </c>
+      <c r="B140">
+        <v>214</v>
+      </c>
+      <c r="C140" t="s">
+        <v>216</v>
+      </c>
+      <c r="D140" t="s">
+        <v>216</v>
+      </c>
+      <c r="E140" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>215</v>
+      </c>
+      <c r="B141">
+        <v>215</v>
+      </c>
+      <c r="C141" t="s">
+        <v>217</v>
+      </c>
+      <c r="D141" t="s">
+        <v>217</v>
+      </c>
+      <c r="E141" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>216</v>
+      </c>
+      <c r="B142">
+        <v>216</v>
+      </c>
+      <c r="C142" t="s">
+        <v>218</v>
+      </c>
+      <c r="D142" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>217</v>
+      </c>
+      <c r="B143">
+        <v>217</v>
+      </c>
+      <c r="C143" t="s">
+        <v>219</v>
+      </c>
+      <c r="D143" t="s">
+        <v>219</v>
+      </c>
+      <c r="E143" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>218</v>
+      </c>
+      <c r="B144">
+        <v>218</v>
+      </c>
+      <c r="C144" t="s">
+        <v>220</v>
+      </c>
+      <c r="D144" t="s">
+        <v>220</v>
+      </c>
+      <c r="E144" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>219</v>
+      </c>
+      <c r="B145">
+        <v>219</v>
+      </c>
+      <c r="C145" t="s">
+        <v>221</v>
+      </c>
+      <c r="D145" t="s">
+        <v>221</v>
+      </c>
+      <c r="E145" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>220</v>
+      </c>
+      <c r="B146">
+        <v>220</v>
+      </c>
+      <c r="C146" t="s">
+        <v>222</v>
+      </c>
+      <c r="D146" t="s">
+        <v>222</v>
+      </c>
+      <c r="E146" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>221</v>
+      </c>
+      <c r="B147">
+        <v>221</v>
+      </c>
+      <c r="C147" t="s">
+        <v>223</v>
+      </c>
+      <c r="D147" t="s">
+        <v>223</v>
+      </c>
+      <c r="E147" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>222</v>
+      </c>
+      <c r="B148">
+        <v>222</v>
+      </c>
+      <c r="C148" t="s">
+        <v>224</v>
+      </c>
+      <c r="D148" t="s">
+        <v>224</v>
+      </c>
+      <c r="E148" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>223</v>
+      </c>
+      <c r="B149">
+        <v>223</v>
+      </c>
+      <c r="C149" t="s">
+        <v>225</v>
+      </c>
+      <c r="D149" t="s">
+        <v>225</v>
+      </c>
+      <c r="E149" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>224</v>
+      </c>
+      <c r="B150">
+        <v>224</v>
+      </c>
+      <c r="C150" t="s">
+        <v>226</v>
+      </c>
+      <c r="D150" t="s">
+        <v>226</v>
+      </c>
+      <c r="E150" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>225</v>
+      </c>
+      <c r="B151">
+        <v>225</v>
+      </c>
+      <c r="C151" t="s">
+        <v>227</v>
+      </c>
+      <c r="D151" t="s">
+        <v>227</v>
+      </c>
+      <c r="E151" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>226</v>
+      </c>
+      <c r="B152">
+        <v>226</v>
+      </c>
+      <c r="C152" t="s">
+        <v>228</v>
+      </c>
+      <c r="D152" t="s">
+        <v>228</v>
+      </c>
+      <c r="E152" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>227</v>
+      </c>
+      <c r="B153">
+        <v>227</v>
+      </c>
+      <c r="C153" t="s">
+        <v>229</v>
+      </c>
+      <c r="D153" t="s">
+        <v>229</v>
+      </c>
+      <c r="E153" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>228</v>
+      </c>
+      <c r="B154">
+        <v>228</v>
+      </c>
+      <c r="C154" t="s">
+        <v>230</v>
+      </c>
+      <c r="D154" t="s">
+        <v>230</v>
+      </c>
+      <c r="E154" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>229</v>
+      </c>
+      <c r="B155">
+        <v>229</v>
+      </c>
+      <c r="C155" t="s">
+        <v>231</v>
+      </c>
+      <c r="D155" t="s">
+        <v>231</v>
+      </c>
+      <c r="E155" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>230</v>
+      </c>
+      <c r="B156">
+        <v>230</v>
+      </c>
+      <c r="C156" t="s">
+        <v>232</v>
+      </c>
+      <c r="D156" t="s">
+        <v>232</v>
+      </c>
+      <c r="E156" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>231</v>
+      </c>
+      <c r="B157">
+        <v>231</v>
+      </c>
+      <c r="C157" t="s">
+        <v>233</v>
+      </c>
+      <c r="D157" t="s">
+        <v>233</v>
+      </c>
+      <c r="E157" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>232</v>
+      </c>
+      <c r="B158">
+        <v>232</v>
+      </c>
+      <c r="C158" t="s">
+        <v>234</v>
+      </c>
+      <c r="D158" t="s">
+        <v>234</v>
+      </c>
+      <c r="E158" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>233</v>
+      </c>
+      <c r="B159">
+        <v>233</v>
+      </c>
+      <c r="C159" t="s">
+        <v>235</v>
+      </c>
+      <c r="D159" t="s">
+        <v>235</v>
+      </c>
+      <c r="E159" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>234</v>
+      </c>
+      <c r="B160">
+        <v>234</v>
+      </c>
+      <c r="C160" t="s">
+        <v>236</v>
+      </c>
+      <c r="D160" t="s">
+        <v>236</v>
+      </c>
+      <c r="E160" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>235</v>
+      </c>
+      <c r="B161">
+        <v>235</v>
+      </c>
+      <c r="C161" t="s">
+        <v>237</v>
+      </c>
+      <c r="D161" t="s">
+        <v>237</v>
+      </c>
+      <c r="E161" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>236</v>
+      </c>
+      <c r="B162">
+        <v>236</v>
+      </c>
+      <c r="C162" t="s">
+        <v>238</v>
+      </c>
+      <c r="D162" t="s">
+        <v>238</v>
+      </c>
+      <c r="E162" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>237</v>
+      </c>
+      <c r="B163">
+        <v>237</v>
+      </c>
+      <c r="C163" t="s">
+        <v>239</v>
+      </c>
+      <c r="D163" t="s">
+        <v>239</v>
+      </c>
+      <c r="E163" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>238</v>
+      </c>
+      <c r="B164">
+        <v>238</v>
+      </c>
+      <c r="C164" t="s">
+        <v>240</v>
+      </c>
+      <c r="D164" t="s">
+        <v>240</v>
+      </c>
+      <c r="E164" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>239</v>
+      </c>
+      <c r="B165">
+        <v>239</v>
+      </c>
+      <c r="C165" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" t="s">
+        <v>241</v>
+      </c>
+      <c r="E165" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>240</v>
+      </c>
+      <c r="B166">
+        <v>240</v>
+      </c>
+      <c r="C166" t="s">
+        <v>242</v>
+      </c>
+      <c r="D166" t="s">
+        <v>242</v>
+      </c>
+      <c r="E166" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>241</v>
+      </c>
+      <c r="B167">
+        <v>241</v>
+      </c>
+      <c r="C167" t="s">
+        <v>243</v>
+      </c>
+      <c r="D167" t="s">
+        <v>243</v>
+      </c>
+      <c r="E167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>242</v>
+      </c>
+      <c r="B168">
+        <v>242</v>
+      </c>
+      <c r="C168" t="s">
+        <v>244</v>
+      </c>
+      <c r="D168" t="s">
+        <v>244</v>
+      </c>
+      <c r="E168" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>243</v>
+      </c>
+      <c r="B169">
+        <v>243</v>
+      </c>
+      <c r="C169" t="s">
+        <v>245</v>
+      </c>
+      <c r="D169" t="s">
+        <v>245</v>
+      </c>
+      <c r="E169" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>244</v>
+      </c>
+      <c r="B170">
+        <v>244</v>
+      </c>
+      <c r="C170" t="s">
+        <v>246</v>
+      </c>
+      <c r="D170" t="s">
+        <v>246</v>
+      </c>
+      <c r="E170" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>245</v>
+      </c>
+      <c r="B171">
+        <v>245</v>
+      </c>
+      <c r="C171" t="s">
+        <v>247</v>
+      </c>
+      <c r="D171" t="s">
+        <v>247</v>
+      </c>
+      <c r="E171" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>246</v>
+      </c>
+      <c r="B172">
+        <v>246</v>
+      </c>
+      <c r="C172" t="s">
+        <v>248</v>
+      </c>
+      <c r="D172" t="s">
+        <v>248</v>
+      </c>
+      <c r="E172" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>247</v>
+      </c>
+      <c r="B173">
+        <v>247</v>
+      </c>
+      <c r="C173" t="s">
+        <v>249</v>
+      </c>
+      <c r="D173" t="s">
+        <v>249</v>
+      </c>
+      <c r="E173" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>248</v>
+      </c>
+      <c r="B174">
+        <v>248</v>
+      </c>
+      <c r="C174" t="s">
+        <v>250</v>
+      </c>
+      <c r="D174" t="s">
+        <v>250</v>
+      </c>
+      <c r="E174" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>249</v>
+      </c>
+      <c r="B175">
+        <v>249</v>
+      </c>
+      <c r="C175" t="s">
+        <v>251</v>
+      </c>
+      <c r="D175" t="s">
+        <v>251</v>
+      </c>
+      <c r="E175" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>250</v>
+      </c>
+      <c r="B176">
+        <v>250</v>
+      </c>
+      <c r="C176" t="s">
+        <v>252</v>
+      </c>
+      <c r="D176" t="s">
+        <v>252</v>
+      </c>
+      <c r="E176" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>251</v>
+      </c>
+      <c r="B177">
+        <v>251</v>
+      </c>
+      <c r="C177" t="s">
+        <v>253</v>
+      </c>
+      <c r="D177" t="s">
+        <v>253</v>
+      </c>
+      <c r="E177" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>252</v>
+      </c>
+      <c r="B178">
+        <v>252</v>
+      </c>
+      <c r="C178" t="s">
+        <v>254</v>
+      </c>
+      <c r="D178" t="s">
+        <v>254</v>
+      </c>
+      <c r="E178" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>253</v>
+      </c>
+      <c r="B179">
+        <v>253</v>
+      </c>
+      <c r="C179" t="s">
+        <v>255</v>
+      </c>
+      <c r="D179" t="s">
+        <v>255</v>
+      </c>
+      <c r="E179" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>254</v>
+      </c>
+      <c r="B180">
+        <v>254</v>
+      </c>
+      <c r="C180" t="s">
+        <v>256</v>
+      </c>
+      <c r="D180" t="s">
+        <v>256</v>
+      </c>
+      <c r="E180" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>255</v>
+      </c>
+      <c r="B181">
+        <v>255</v>
+      </c>
+      <c r="C181" t="s">
+        <v>257</v>
+      </c>
+      <c r="D181" t="s">
+        <v>257</v>
+      </c>
+      <c r="E181" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>256</v>
+      </c>
+      <c r="B182">
+        <v>256</v>
+      </c>
+      <c r="C182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D182" t="s">
+        <v>258</v>
+      </c>
+      <c r="E182" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>257</v>
+      </c>
+      <c r="B183">
+        <v>257</v>
+      </c>
+      <c r="C183" t="s">
+        <v>259</v>
+      </c>
+      <c r="D183" t="s">
+        <v>259</v>
+      </c>
+      <c r="E183" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>258</v>
+      </c>
+      <c r="B184">
+        <v>258</v>
+      </c>
+      <c r="C184" t="s">
+        <v>260</v>
+      </c>
+      <c r="D184" t="s">
+        <v>260</v>
+      </c>
+      <c r="E184" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>259</v>
+      </c>
+      <c r="B185">
+        <v>259</v>
+      </c>
+      <c r="C185" t="s">
+        <v>261</v>
+      </c>
+      <c r="D185" t="s">
+        <v>261</v>
+      </c>
+      <c r="E185" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>260</v>
+      </c>
+      <c r="B186">
+        <v>260</v>
+      </c>
+      <c r="C186" t="s">
+        <v>262</v>
+      </c>
+      <c r="D186" t="s">
+        <v>262</v>
+      </c>
+      <c r="E186" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>261</v>
+      </c>
+      <c r="B187">
+        <v>261</v>
+      </c>
+      <c r="C187" t="s">
+        <v>263</v>
+      </c>
+      <c r="D187" t="s">
+        <v>263</v>
+      </c>
+      <c r="E187" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>262</v>
+      </c>
+      <c r="B188">
+        <v>262</v>
+      </c>
+      <c r="C188" t="s">
+        <v>264</v>
+      </c>
+      <c r="D188" t="s">
+        <v>264</v>
+      </c>
+      <c r="E188" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>263</v>
+      </c>
+      <c r="B189">
+        <v>263</v>
+      </c>
+      <c r="C189" t="s">
+        <v>265</v>
+      </c>
+      <c r="D189" t="s">
+        <v>265</v>
+      </c>
+      <c r="E189" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>264</v>
+      </c>
+      <c r="B190">
+        <v>264</v>
+      </c>
+      <c r="C190" t="s">
+        <v>266</v>
+      </c>
+      <c r="D190" t="s">
+        <v>266</v>
+      </c>
+      <c r="E190" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>265</v>
+      </c>
+      <c r="B191">
+        <v>265</v>
+      </c>
+      <c r="C191" t="s">
+        <v>267</v>
+      </c>
+      <c r="D191" t="s">
+        <v>267</v>
+      </c>
+      <c r="E191" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>266</v>
+      </c>
+      <c r="B192">
+        <v>266</v>
+      </c>
+      <c r="C192" t="s">
+        <v>268</v>
+      </c>
+      <c r="D192" t="s">
+        <v>268</v>
+      </c>
+      <c r="E192" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>267</v>
+      </c>
+      <c r="B193">
+        <v>267</v>
+      </c>
+      <c r="C193" t="s">
+        <v>269</v>
+      </c>
+      <c r="D193" t="s">
+        <v>269</v>
+      </c>
+      <c r="E193" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>268</v>
+      </c>
+      <c r="B194">
+        <v>268</v>
+      </c>
+      <c r="C194" t="s">
+        <v>270</v>
+      </c>
+      <c r="D194" t="s">
+        <v>270</v>
+      </c>
+      <c r="E194" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>269</v>
+      </c>
+      <c r="B195">
+        <v>269</v>
+      </c>
+      <c r="C195" t="s">
+        <v>271</v>
+      </c>
+      <c r="D195" t="s">
+        <v>271</v>
+      </c>
+      <c r="E195" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>270</v>
+      </c>
+      <c r="B196">
+        <v>270</v>
+      </c>
+      <c r="C196" t="s">
+        <v>272</v>
+      </c>
+      <c r="D196" t="s">
+        <v>272</v>
+      </c>
+      <c r="E196" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>271</v>
+      </c>
+      <c r="B197">
+        <v>271</v>
+      </c>
+      <c r="C197" t="s">
+        <v>273</v>
+      </c>
+      <c r="D197" t="s">
+        <v>273</v>
+      </c>
+      <c r="E197" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>272</v>
+      </c>
+      <c r="B198">
+        <v>272</v>
+      </c>
+      <c r="C198" t="s">
+        <v>274</v>
+      </c>
+      <c r="D198" t="s">
+        <v>274</v>
+      </c>
+      <c r="E198" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>273</v>
+      </c>
+      <c r="B199">
+        <v>273</v>
+      </c>
+      <c r="C199" t="s">
+        <v>275</v>
+      </c>
+      <c r="D199" t="s">
+        <v>275</v>
+      </c>
+      <c r="E199" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>274</v>
+      </c>
+      <c r="B200">
+        <v>274</v>
+      </c>
+      <c r="C200" t="s">
+        <v>276</v>
+      </c>
+      <c r="D200" t="s">
+        <v>276</v>
+      </c>
+      <c r="E200" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>275</v>
+      </c>
+      <c r="B201">
+        <v>275</v>
+      </c>
+      <c r="C201" t="s">
+        <v>277</v>
+      </c>
+      <c r="D201" t="s">
+        <v>277</v>
+      </c>
+      <c r="E201" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>276</v>
+      </c>
+      <c r="B202">
+        <v>276</v>
+      </c>
+      <c r="C202" t="s">
+        <v>278</v>
+      </c>
+      <c r="D202" t="s">
+        <v>278</v>
+      </c>
+      <c r="E202" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>277</v>
+      </c>
+      <c r="B203">
+        <v>277</v>
+      </c>
+      <c r="C203" t="s">
+        <v>279</v>
+      </c>
+      <c r="D203" t="s">
+        <v>279</v>
+      </c>
+      <c r="E203" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>278</v>
+      </c>
+      <c r="B204">
+        <v>278</v>
+      </c>
+      <c r="C204" t="s">
+        <v>280</v>
+      </c>
+      <c r="D204" t="s">
+        <v>280</v>
+      </c>
+      <c r="E204" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>279</v>
+      </c>
+      <c r="B205">
+        <v>279</v>
+      </c>
+      <c r="C205" t="s">
+        <v>281</v>
+      </c>
+      <c r="D205" t="s">
+        <v>281</v>
+      </c>
+      <c r="E205" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>280</v>
+      </c>
+      <c r="B206">
+        <v>280</v>
+      </c>
+      <c r="C206" t="s">
+        <v>282</v>
+      </c>
+      <c r="D206" t="s">
+        <v>282</v>
+      </c>
+      <c r="E206" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>281</v>
+      </c>
+      <c r="B207">
+        <v>281</v>
+      </c>
+      <c r="C207" t="s">
+        <v>283</v>
+      </c>
+      <c r="D207" t="s">
+        <v>283</v>
+      </c>
+      <c r="E207" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>282</v>
+      </c>
+      <c r="B208">
+        <v>282</v>
+      </c>
+      <c r="C208" t="s">
+        <v>284</v>
+      </c>
+      <c r="D208" t="s">
+        <v>284</v>
+      </c>
+      <c r="E208" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>283</v>
+      </c>
+      <c r="B209">
+        <v>283</v>
+      </c>
+      <c r="C209" t="s">
+        <v>285</v>
+      </c>
+      <c r="D209" t="s">
+        <v>285</v>
+      </c>
+      <c r="E209" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>284</v>
+      </c>
+      <c r="B210">
+        <v>284</v>
+      </c>
+      <c r="C210" t="s">
+        <v>286</v>
+      </c>
+      <c r="D210" t="s">
+        <v>286</v>
+      </c>
+      <c r="E210" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>285</v>
+      </c>
+      <c r="B211">
+        <v>285</v>
+      </c>
+      <c r="C211" t="s">
+        <v>287</v>
+      </c>
+      <c r="D211" t="s">
+        <v>287</v>
+      </c>
+      <c r="E211" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>286</v>
+      </c>
+      <c r="B212">
+        <v>286</v>
+      </c>
+      <c r="C212" t="s">
+        <v>288</v>
+      </c>
+      <c r="D212" t="s">
+        <v>288</v>
+      </c>
+      <c r="E212" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>287</v>
+      </c>
+      <c r="B213">
+        <v>287</v>
+      </c>
+      <c r="C213" t="s">
+        <v>289</v>
+      </c>
+      <c r="D213" t="s">
+        <v>289</v>
+      </c>
+      <c r="E213" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>288</v>
+      </c>
+      <c r="B214">
+        <v>288</v>
+      </c>
+      <c r="C214" t="s">
+        <v>290</v>
+      </c>
+      <c r="D214" t="s">
+        <v>290</v>
+      </c>
+      <c r="E214" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>289</v>
+      </c>
+      <c r="B215">
+        <v>289</v>
+      </c>
+      <c r="C215" t="s">
+        <v>291</v>
+      </c>
+      <c r="D215" t="s">
+        <v>291</v>
+      </c>
+      <c r="E215" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>290</v>
+      </c>
+      <c r="B216">
+        <v>290</v>
+      </c>
+      <c r="C216" t="s">
+        <v>292</v>
+      </c>
+      <c r="D216" t="s">
+        <v>292</v>
+      </c>
+      <c r="E216" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>291</v>
+      </c>
+      <c r="B217">
+        <v>291</v>
+      </c>
+      <c r="C217" t="s">
+        <v>293</v>
+      </c>
+      <c r="D217" t="s">
+        <v>293</v>
+      </c>
+      <c r="E217" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>292</v>
+      </c>
+      <c r="B218">
+        <v>292</v>
+      </c>
+      <c r="C218" t="s">
+        <v>294</v>
+      </c>
+      <c r="D218" t="s">
+        <v>294</v>
+      </c>
+      <c r="E218" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>293</v>
+      </c>
+      <c r="B219">
+        <v>293</v>
+      </c>
+      <c r="C219" t="s">
+        <v>295</v>
+      </c>
+      <c r="D219" t="s">
+        <v>295</v>
+      </c>
+      <c r="E219" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>294</v>
+      </c>
+      <c r="B220">
+        <v>294</v>
+      </c>
+      <c r="C220" t="s">
+        <v>296</v>
+      </c>
+      <c r="D220" t="s">
+        <v>296</v>
+      </c>
+      <c r="E220" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>295</v>
+      </c>
+      <c r="B221">
+        <v>295</v>
+      </c>
+      <c r="C221" t="s">
+        <v>297</v>
+      </c>
+      <c r="D221" t="s">
+        <v>297</v>
+      </c>
+      <c r="E221" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>296</v>
+      </c>
+      <c r="B222">
+        <v>296</v>
+      </c>
+      <c r="C222" t="s">
+        <v>298</v>
+      </c>
+      <c r="D222" t="s">
+        <v>298</v>
+      </c>
+      <c r="E222" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>297</v>
+      </c>
+      <c r="B223">
+        <v>297</v>
+      </c>
+      <c r="C223" t="s">
+        <v>299</v>
+      </c>
+      <c r="D223" t="s">
+        <v>299</v>
+      </c>
+      <c r="E223" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>298</v>
+      </c>
+      <c r="B224">
+        <v>298</v>
+      </c>
+      <c r="C224" t="s">
+        <v>300</v>
+      </c>
+      <c r="D224" t="s">
+        <v>300</v>
+      </c>
+      <c r="E224" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>299</v>
+      </c>
+      <c r="B225">
+        <v>299</v>
+      </c>
+      <c r="C225" t="s">
+        <v>301</v>
+      </c>
+      <c r="D225" t="s">
+        <v>301</v>
+      </c>
+      <c r="E225" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>300</v>
+      </c>
+      <c r="B226">
+        <v>300</v>
+      </c>
+      <c r="C226" t="s">
+        <v>302</v>
+      </c>
+      <c r="D226" t="s">
+        <v>302</v>
+      </c>
+      <c r="E226" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>301</v>
+      </c>
+      <c r="B227">
+        <v>301</v>
+      </c>
+      <c r="C227" t="s">
+        <v>303</v>
+      </c>
+      <c r="D227" t="s">
+        <v>303</v>
+      </c>
+      <c r="E227" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>302</v>
+      </c>
+      <c r="B228">
+        <v>302</v>
+      </c>
+      <c r="C228" t="s">
+        <v>304</v>
+      </c>
+      <c r="D228" t="s">
+        <v>304</v>
+      </c>
+      <c r="E228" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>303</v>
+      </c>
+      <c r="B229">
+        <v>303</v>
+      </c>
+      <c r="C229" t="s">
+        <v>305</v>
+      </c>
+      <c r="D229" t="s">
+        <v>305</v>
+      </c>
+      <c r="E229" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>304</v>
+      </c>
+      <c r="B230">
+        <v>304</v>
+      </c>
+      <c r="C230" t="s">
+        <v>306</v>
+      </c>
+      <c r="D230" t="s">
+        <v>306</v>
+      </c>
+      <c r="E230" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>305</v>
+      </c>
+      <c r="B231">
+        <v>305</v>
+      </c>
+      <c r="C231" t="s">
+        <v>307</v>
+      </c>
+      <c r="D231" t="s">
+        <v>307</v>
+      </c>
+      <c r="E231" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>306</v>
+      </c>
+      <c r="B232">
+        <v>306</v>
+      </c>
+      <c r="C232" t="s">
+        <v>308</v>
+      </c>
+      <c r="D232" t="s">
+        <v>308</v>
+      </c>
+      <c r="E232" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>307</v>
+      </c>
+      <c r="B233">
+        <v>307</v>
+      </c>
+      <c r="C233" t="s">
+        <v>309</v>
+      </c>
+      <c r="D233" t="s">
+        <v>309</v>
+      </c>
+      <c r="E233" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>308</v>
+      </c>
+      <c r="B234">
+        <v>308</v>
+      </c>
+      <c r="C234" t="s">
+        <v>310</v>
+      </c>
+      <c r="D234" t="s">
+        <v>310</v>
+      </c>
+      <c r="E234" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>309</v>
+      </c>
+      <c r="B235">
+        <v>309</v>
+      </c>
+      <c r="C235" t="s">
+        <v>311</v>
+      </c>
+      <c r="D235" t="s">
+        <v>311</v>
+      </c>
+      <c r="E235" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -727,10 +5443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210:A31271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,10 +5479,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,10 +5496,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -797,61 +5513,3495 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" t="s">
+        <v>315</v>
+      </c>
+      <c r="E36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" t="s">
+        <v>317</v>
+      </c>
+      <c r="E59" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>318</v>
+      </c>
+      <c r="D65" t="s">
+        <v>318</v>
+      </c>
+      <c r="E65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" t="s">
+        <v>319</v>
+      </c>
+      <c r="E66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>320</v>
+      </c>
+      <c r="D87" t="s">
+        <v>320</v>
+      </c>
+      <c r="E87" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>321</v>
+      </c>
+      <c r="D99" t="s">
+        <v>321</v>
+      </c>
+      <c r="E99" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D108" t="s">
+        <v>322</v>
+      </c>
+      <c r="E108" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" t="s">
+        <v>119</v>
+      </c>
+      <c r="E115" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" t="s">
+        <v>123</v>
+      </c>
+      <c r="E119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" t="s">
+        <v>125</v>
+      </c>
+      <c r="E121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" t="s">
+        <v>126</v>
+      </c>
+      <c r="E122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" t="s">
+        <v>127</v>
+      </c>
+      <c r="E123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" t="s">
+        <v>128</v>
+      </c>
+      <c r="E124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" t="s">
+        <v>129</v>
+      </c>
+      <c r="E125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>130</v>
+      </c>
+      <c r="D126" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" t="s">
+        <v>131</v>
+      </c>
+      <c r="E127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" t="s">
+        <v>135</v>
+      </c>
+      <c r="E131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>136</v>
+      </c>
+      <c r="D132" t="s">
+        <v>136</v>
+      </c>
+      <c r="E132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>137</v>
+      </c>
+      <c r="D133" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>138</v>
+      </c>
+      <c r="D134" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>139</v>
+      </c>
+      <c r="D135" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>141</v>
+      </c>
+      <c r="D137" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>142</v>
+      </c>
+      <c r="D138" t="s">
+        <v>142</v>
+      </c>
+      <c r="E138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>143</v>
+      </c>
+      <c r="D139" t="s">
+        <v>143</v>
+      </c>
+      <c r="E139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>144</v>
+      </c>
+      <c r="D140" t="s">
+        <v>144</v>
+      </c>
+      <c r="E140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>323</v>
+      </c>
+      <c r="D141" t="s">
+        <v>323</v>
+      </c>
+      <c r="E141" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>146</v>
+      </c>
+      <c r="D142" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>147</v>
+      </c>
+      <c r="D143" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>148</v>
+      </c>
+      <c r="D144" t="s">
+        <v>148</v>
+      </c>
+      <c r="E144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>149</v>
+      </c>
+      <c r="D145" t="s">
+        <v>149</v>
+      </c>
+      <c r="E145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>150</v>
+      </c>
+      <c r="D146" t="s">
+        <v>150</v>
+      </c>
+      <c r="E146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>151</v>
+      </c>
+      <c r="D147" t="s">
+        <v>151</v>
+      </c>
+      <c r="E147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>152</v>
+      </c>
+      <c r="D148" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>153</v>
+      </c>
+      <c r="D149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>154</v>
+      </c>
+      <c r="D150" t="s">
+        <v>154</v>
+      </c>
+      <c r="E150" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D151" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>324</v>
+      </c>
+      <c r="D152" t="s">
+        <v>324</v>
+      </c>
+      <c r="E152" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>157</v>
+      </c>
+      <c r="D153" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>158</v>
+      </c>
+      <c r="D154" t="s">
+        <v>158</v>
+      </c>
+      <c r="E154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>159</v>
+      </c>
+      <c r="D155" t="s">
+        <v>159</v>
+      </c>
+      <c r="E155" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>160</v>
+      </c>
+      <c r="D156" t="s">
+        <v>160</v>
+      </c>
+      <c r="E156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>161</v>
+      </c>
+      <c r="D157" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>162</v>
+      </c>
+      <c r="D158" t="s">
+        <v>162</v>
+      </c>
+      <c r="E158" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>164</v>
+      </c>
+      <c r="D160" t="s">
+        <v>164</v>
+      </c>
+      <c r="E160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>165</v>
+      </c>
+      <c r="D161" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>166</v>
+      </c>
+      <c r="D162" t="s">
+        <v>166</v>
+      </c>
+      <c r="E162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>167</v>
+      </c>
+      <c r="D163" t="s">
+        <v>167</v>
+      </c>
+      <c r="E163" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>168</v>
+      </c>
+      <c r="D164" t="s">
+        <v>168</v>
+      </c>
+      <c r="E164" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>169</v>
+      </c>
+      <c r="D165" t="s">
+        <v>169</v>
+      </c>
+      <c r="E165" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>170</v>
+      </c>
+      <c r="D166" t="s">
+        <v>170</v>
+      </c>
+      <c r="E166" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>325</v>
+      </c>
+      <c r="D167" t="s">
+        <v>325</v>
+      </c>
+      <c r="E167" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>172</v>
+      </c>
+      <c r="D168" t="s">
+        <v>172</v>
+      </c>
+      <c r="E168" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>173</v>
+      </c>
+      <c r="D169" t="s">
+        <v>173</v>
+      </c>
+      <c r="E169" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>174</v>
+      </c>
+      <c r="D170" t="s">
+        <v>174</v>
+      </c>
+      <c r="E170" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" t="s">
+        <v>175</v>
+      </c>
+      <c r="E171" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>176</v>
+      </c>
+      <c r="D172" t="s">
+        <v>176</v>
+      </c>
+      <c r="E172" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>177</v>
+      </c>
+      <c r="D173" t="s">
+        <v>177</v>
+      </c>
+      <c r="E173" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>178</v>
+      </c>
+      <c r="D174" t="s">
+        <v>178</v>
+      </c>
+      <c r="E174" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>179</v>
+      </c>
+      <c r="D175" t="s">
+        <v>179</v>
+      </c>
+      <c r="E175" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>180</v>
+      </c>
+      <c r="D176" t="s">
+        <v>180</v>
+      </c>
+      <c r="E176" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>326</v>
+      </c>
+      <c r="D177" t="s">
+        <v>326</v>
+      </c>
+      <c r="E177" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>182</v>
+      </c>
+      <c r="D178" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>183</v>
+      </c>
+      <c r="D179" t="s">
+        <v>183</v>
+      </c>
+      <c r="E179" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>184</v>
+      </c>
+      <c r="D180" t="s">
+        <v>184</v>
+      </c>
+      <c r="E180" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
         <v>185</v>
       </c>
-      <c r="B7">
+      <c r="D181" t="s">
         <v>185</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
+      <c r="E181" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>186</v>
+      </c>
+      <c r="D182" t="s">
+        <v>186</v>
+      </c>
+      <c r="E182" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183" t="s">
+        <v>187</v>
+      </c>
+      <c r="D183" t="s">
+        <v>187</v>
+      </c>
+      <c r="E183" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>327</v>
+      </c>
+      <c r="D184" t="s">
+        <v>328</v>
+      </c>
+      <c r="E184" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>330</v>
+      </c>
+      <c r="D185" t="s">
+        <v>331</v>
+      </c>
+      <c r="E185" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>333</v>
+      </c>
+      <c r="D186" t="s">
+        <v>334</v>
+      </c>
+      <c r="E186" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>188</v>
+      </c>
+      <c r="D187" t="s">
+        <v>188</v>
+      </c>
+      <c r="E187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>189</v>
+      </c>
+      <c r="D188" t="s">
+        <v>189</v>
+      </c>
+      <c r="E188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>190</v>
+      </c>
+      <c r="D189" t="s">
+        <v>190</v>
+      </c>
+      <c r="E189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>336</v>
+      </c>
+      <c r="D190" t="s">
+        <v>337</v>
+      </c>
+      <c r="E190" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>191</v>
+      </c>
+      <c r="D191" t="s">
+        <v>191</v>
+      </c>
+      <c r="E191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>192</v>
+      </c>
+      <c r="D192" t="s">
+        <v>192</v>
+      </c>
+      <c r="E192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>193</v>
+      </c>
+      <c r="D193" t="s">
+        <v>193</v>
+      </c>
+      <c r="E193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>194</v>
+      </c>
+      <c r="D194" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>195</v>
+      </c>
+      <c r="D195" t="s">
+        <v>195</v>
+      </c>
+      <c r="E195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>196</v>
+      </c>
+      <c r="D196" t="s">
+        <v>196</v>
+      </c>
+      <c r="E196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>339</v>
+      </c>
+      <c r="D197" t="s">
+        <v>339</v>
+      </c>
+      <c r="E197" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>198</v>
+      </c>
+      <c r="D198" t="s">
+        <v>198</v>
+      </c>
+      <c r="E198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D199" t="s">
+        <v>199</v>
+      </c>
+      <c r="E199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>200</v>
+      </c>
+      <c r="D200" t="s">
+        <v>200</v>
+      </c>
+      <c r="E200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>201</v>
+      </c>
+      <c r="D201" t="s">
+        <v>201</v>
+      </c>
+      <c r="E201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D202" t="s">
+        <v>202</v>
+      </c>
+      <c r="E202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>340</v>
+      </c>
+      <c r="D203" t="s">
+        <v>341</v>
+      </c>
+      <c r="E203" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204" t="s">
+        <v>204</v>
+      </c>
+      <c r="D204" t="s">
+        <v>204</v>
+      </c>
+      <c r="E204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>205</v>
+      </c>
+      <c r="D205" t="s">
+        <v>205</v>
+      </c>
+      <c r="E205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206" t="s">
+        <v>206</v>
+      </c>
+      <c r="D206" t="s">
+        <v>206</v>
+      </c>
+      <c r="E206" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207" t="s">
+        <v>207</v>
+      </c>
+      <c r="D207" t="s">
+        <v>207</v>
+      </c>
+      <c r="E207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>343</v>
+      </c>
+      <c r="D208" t="s">
+        <v>344</v>
+      </c>
+      <c r="E208" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>346</v>
+      </c>
+      <c r="D209" t="s">
+        <v>347</v>
+      </c>
+      <c r="E209" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
